--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3210.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3210.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Krishnakumar Dinesh Karthik</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2263</t>
+          <t>2263</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -543,7 +608,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>11/09/2004</t>
@@ -551,7 +615,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2266</t>
+          <t>2266</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -591,7 +655,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>15/04/2006</t>
@@ -599,7 +662,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2463</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -651,7 +714,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2553</t>
+          <t>2553</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -703,7 +766,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2557</t>
+          <t>2557</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -755,7 +818,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2563</t>
+          <t>2563</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -795,7 +858,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>21/01/2007</t>
@@ -803,7 +865,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2587</t>
+          <t>2587</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -855,7 +917,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2592</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -907,7 +969,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2594</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -947,7 +1009,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>08/02/2007</t>
@@ -955,7 +1016,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2621</t>
+          <t>2621</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1007,7 +1068,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2627</t>
+          <t>2627</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1059,7 +1120,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2629</t>
+          <t>2629</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1111,7 +1172,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2632</t>
+          <t>2632</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1163,7 +1224,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2689</t>
+          <t>2689</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1215,7 +1276,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2690</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1255,7 +1316,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>23/06/2007</t>
@@ -1263,7 +1323,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2698</t>
+          <t>2698</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1315,7 +1375,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2700</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1367,7 +1427,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2701</t>
+          <t>2701</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1407,7 +1467,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>01/07/2007</t>
@@ -1415,7 +1474,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2703</t>
+          <t>2703</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1467,7 +1526,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2719</t>
+          <t>2719</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1519,7 +1578,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2722</t>
+          <t>2722</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1571,7 +1630,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2724</t>
+          <t>2724</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1623,7 +1682,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2727</t>
+          <t>2727</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1675,7 +1734,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2728</t>
+          <t>2728</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1727,7 +1786,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2729</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1779,7 +1838,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2743</t>
+          <t>2743</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1831,7 +1890,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2975</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1883,7 +1942,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2976</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1935,7 +1994,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2977</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1975,7 +2034,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>05/07/2009</t>
@@ -1983,7 +2041,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2978</t>
+          <t>2978</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2035,7 +2093,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3013</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2087,7 +2145,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3014</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2139,7 +2197,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3031</t>
+          <t>3031</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2191,7 +2249,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3064</t>
+          <t>3064</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2243,7 +2301,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3065</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2283,7 +2341,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>27/12/2009</t>
@@ -2291,7 +2348,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3066</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2343,7 +2400,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3071</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2395,7 +2452,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3072</t>
+          <t>3072</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2447,7 +2504,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3091</t>
+          <t>3091</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2499,7 +2556,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3092</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2551,7 +2608,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3093</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2603,7 +2660,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3111</t>
+          <t>3111</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2655,7 +2712,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3113</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2707,7 +2764,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3116</t>
+          <t>3116</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2759,7 +2816,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3118</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2811,7 +2868,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3132</t>
+          <t>3132</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2863,7 +2920,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3130</t>
+          <t>3130</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2915,7 +2972,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3161</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2967,7 +3024,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3163</t>
+          <t>3163</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3019,7 +3076,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3169</t>
+          <t>3169</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3071,7 +3128,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3170</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3123,7 +3180,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3171</t>
+          <t>3171</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3175,7 +3232,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3227,7 +3284,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3279,7 +3336,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3319,7 +3376,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>20/06/2013</t>
@@ -3327,7 +3383,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3379,7 +3435,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3431,7 +3487,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3483,7 +3539,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3535,7 +3591,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3587,7 +3643,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3639,7 +3695,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3691,7 +3747,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3537</t>
+          <t>3537</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3743,7 +3799,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3539</t>
+          <t>3539</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3783,7 +3839,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>28/07/2013</t>
@@ -3791,7 +3846,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3541</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3831,7 +3886,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>01/08/2013</t>
@@ -3839,7 +3893,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3544</t>
+          <t>3544</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3891,7 +3945,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3545</t>
+          <t>3545</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3943,7 +3997,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3995,7 +4049,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4047,7 +4101,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4099,7 +4153,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4151,7 +4205,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4203,7 +4257,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4255,7 +4309,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4307,7 +4361,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4359,7 +4413,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4411,7 +4465,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4451,7 +4505,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>13/12/2017</t>
@@ -4459,7 +4512,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4511,7 +4564,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4563,7 +4616,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4615,7 +4668,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4196</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4667,7 +4720,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4719,7 +4772,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4759,7 +4812,6 @@
           <t>84</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -4767,7 +4819,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4819,7 +4871,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4871,7 +4923,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4205</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4923,7 +4975,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4975,7 +5027,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5015,7 +5067,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>18/01/2019</t>
@@ -5023,7 +5074,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5075,7 +5126,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5127,7 +5178,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5179,7 +5230,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5219,7 +5270,6 @@
           <t>93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>06/07/2019</t>
@@ -5227,7 +5277,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5279,7 +5329,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5310,6 +5360,515 @@
       <c r="J95" t="inlineStr">
         <is>
           <t>25</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11.87%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4175</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4196</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>18.90%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>16.59%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.72%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15.51%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.55%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3210.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3210.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3210.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3210.xlsx
@@ -5374,7 +5374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5417,13 +5417,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4088</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>2263</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5433,27 +5447,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4089</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.19%</t>
-        </is>
-      </c>
+          <t>2266</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5463,22 +5463,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4096</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
@@ -5489,13 +5481,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4098</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>2553</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5505,27 +5511,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4099</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>11.87%</t>
-        </is>
-      </c>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5535,13 +5527,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4175</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>2563</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5.50%</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5551,7 +5557,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4196</t>
+          <t>2587</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -5567,41 +5573,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4197</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>18.90%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4199</t>
+          <t>2594</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -5615,7 +5621,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.57%</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -5627,12 +5633,10 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4201</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
+          <t>2621</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -5645,7 +5649,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4203</t>
+          <t>2627</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -5661,27 +5665,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4205</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>16.59%</t>
-        </is>
-      </c>
+          <t>2629</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5691,11 +5681,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4234</t>
+          <t>2632</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -5709,7 +5699,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.72%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -5721,13 +5711,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4235</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>2689</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.11%</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5737,12 +5741,10 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4236</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
+          <t>2690</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -5755,27 +5757,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4245</t>
+          <t>2698</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>15.51%</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5785,22 +5775,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4248</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
@@ -5811,27 +5791,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4345</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.55%</t>
-        </is>
-      </c>
+          <t>2701</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5841,12 +5807,10 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4350</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
+          <t>2703</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -5859,14 +5823,1784 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>2719</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6.60%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2722</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.91%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2724</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2727</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2728</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2729</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2743</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>19.76%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2976</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2.13%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2977</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2978</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3013</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3014</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>9.52%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3031</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.15%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3064</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13.17%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3065</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5.99%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3066</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3071</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.43%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3091</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>14.77%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3092</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>19.70%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3093</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3111</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3113</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>7.41%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3116</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>17.01%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3118</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3132</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>19.14%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.63%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3161</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>15.91%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3163</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3169</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>8.74%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3170</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3171</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3505</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>4.23%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.61%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3514</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10.78%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3519</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>10.04%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>11.76%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3525</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1.93%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>4</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>10.08%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3530</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11.33%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3537</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3539</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3541</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3545</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>5.99%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3619</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3621</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>13.13%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4057</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>24.27%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1.19%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>11.87%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4175</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4196</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4197</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>18.90%</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>4</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>16.59%</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>4.72%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>15.51%</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>7</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2.55%</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>7</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>4353</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
